--- a/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Macroalbuminuria.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Macroalbuminuria.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18.90089596102024</v>
+        <v>18.9570735570164</v>
       </c>
       <c r="B2" t="n">
-        <v>14.44086788149258</v>
+        <v>14.34218387577806</v>
       </c>
       <c r="C2" t="n">
-        <v>23.5953656511512</v>
+        <v>23.62340838986937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23.837257613795</v>
+        <v>24.05103843076496</v>
       </c>
       <c r="B3" t="n">
-        <v>15.535088571076</v>
+        <v>15.22006587587772</v>
       </c>
       <c r="C3" t="n">
-        <v>33.07752355922591</v>
+        <v>32.96868354207432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23.67271949954707</v>
+        <v>23.66741125480683</v>
       </c>
       <c r="B4" t="n">
-        <v>19.75820241559442</v>
+        <v>19.95959585435053</v>
       </c>
       <c r="C4" t="n">
-        <v>27.93421947016954</v>
+        <v>27.8654980739039</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>29.09784169978551</v>
+        <v>29.17863098445781</v>
       </c>
       <c r="B5" t="n">
-        <v>20.72621575333147</v>
+        <v>20.68732493380909</v>
       </c>
       <c r="C5" t="n">
-        <v>38.88071748925741</v>
+        <v>38.89319879509092</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29.03347217294565</v>
+        <v>29.00513344113311</v>
       </c>
       <c r="B6" t="n">
-        <v>25.73056490853407</v>
+        <v>25.74425588964452</v>
       </c>
       <c r="C6" t="n">
-        <v>32.57996733210752</v>
+        <v>32.51223808671732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17.5595133826935</v>
+        <v>17.50493707208367</v>
       </c>
       <c r="B7" t="n">
-        <v>14.09714354317062</v>
+        <v>14.0570865368999</v>
       </c>
       <c r="C7" t="n">
-        <v>21.45214688578999</v>
+        <v>21.28645448559294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.440309458204335</v>
+        <v>5.455136183207044</v>
       </c>
       <c r="B8" t="n">
-        <v>4.151140810316245</v>
+        <v>4.148587976937096</v>
       </c>
       <c r="C8" t="n">
-        <v>7.133112609640794</v>
+        <v>7.144987446815967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26.70621479447541</v>
+        <v>26.7049372022754</v>
       </c>
       <c r="B9" t="n">
-        <v>24.02461106130096</v>
+        <v>23.7683122819085</v>
       </c>
       <c r="C9" t="n">
-        <v>29.91721346402854</v>
+        <v>29.77421483562581</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.548982920451476</v>
+        <v>5.532831667461014</v>
       </c>
       <c r="B10" t="n">
-        <v>4.238214688558035</v>
+        <v>4.202621132062809</v>
       </c>
       <c r="C10" t="n">
-        <v>7.253937017105892</v>
+        <v>7.22514953415899</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13.59588892157888</v>
+        <v>13.79796146869829</v>
       </c>
       <c r="B11" t="n">
-        <v>10.38758288339042</v>
+        <v>10.2248508848721</v>
       </c>
       <c r="C11" t="n">
-        <v>17.54203834918605</v>
+        <v>17.52881965983106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>26.84807134587514</v>
+        <v>26.91952053799127</v>
       </c>
       <c r="B12" t="n">
-        <v>21.70338777414058</v>
+        <v>21.86186015810158</v>
       </c>
       <c r="C12" t="n">
-        <v>31.89438753353233</v>
+        <v>32.04697448543714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.329522845074537</v>
+        <v>7.349631581690655</v>
       </c>
       <c r="B13" t="n">
-        <v>5.482570707893385</v>
+        <v>5.494577388400234</v>
       </c>
       <c r="C13" t="n">
-        <v>9.900617440800865</v>
+        <v>9.921235393791981</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.934757784877991</v>
+        <v>9.980989690087547</v>
       </c>
       <c r="B14" t="n">
-        <v>7.358639121556398</v>
+        <v>7.386329313808751</v>
       </c>
       <c r="C14" t="n">
-        <v>13.43145742725396</v>
+        <v>13.48695935417248</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>34.16632521887582</v>
+        <v>34.43260979953207</v>
       </c>
       <c r="B15" t="n">
-        <v>24.34927451658531</v>
+        <v>24.17416525094167</v>
       </c>
       <c r="C15" t="n">
-        <v>44.48950808377183</v>
+        <v>44.63777810767615</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>29.03468355379539</v>
+        <v>28.968904646991</v>
       </c>
       <c r="B16" t="n">
-        <v>25.71852345047752</v>
+        <v>25.62104916887437</v>
       </c>
       <c r="C16" t="n">
-        <v>32.62732898766403</v>
+        <v>32.51514477160296</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>26.64633416504049</v>
+        <v>26.74296139459385</v>
       </c>
       <c r="B17" t="n">
-        <v>21.77867585658137</v>
+        <v>21.80124644595766</v>
       </c>
       <c r="C17" t="n">
-        <v>31.7581862745201</v>
+        <v>32.05620547191757</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>23.72642159248429</v>
+        <v>23.6455447383955</v>
       </c>
       <c r="B18" t="n">
-        <v>19.91449146021264</v>
+        <v>19.96909236882326</v>
       </c>
       <c r="C18" t="n">
-        <v>27.91519469545844</v>
+        <v>27.80610676470266</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14.02657171360104</v>
+        <v>14.04529609762709</v>
       </c>
       <c r="B19" t="n">
-        <v>10.46476638342573</v>
+        <v>10.44491932184192</v>
       </c>
       <c r="C19" t="n">
-        <v>18.04318424193022</v>
+        <v>18.03431651941973</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>32.33578788059545</v>
+        <v>32.38140706538771</v>
       </c>
       <c r="B20" t="n">
-        <v>28.23399995391241</v>
+        <v>28.48972388569711</v>
       </c>
       <c r="C20" t="n">
-        <v>36.74050932434861</v>
+        <v>36.74604413337329</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>33.35940212693497</v>
+        <v>33.23321737125198</v>
       </c>
       <c r="B21" t="n">
-        <v>27.90524709398364</v>
+        <v>27.914140291793</v>
       </c>
       <c r="C21" t="n">
-        <v>38.23332346195922</v>
+        <v>38.39260699930262</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.563891147879329</v>
+        <v>5.53573437452109</v>
       </c>
       <c r="B22" t="n">
-        <v>4.220935101039212</v>
+        <v>4.226387292941371</v>
       </c>
       <c r="C22" t="n">
-        <v>7.359734023948593</v>
+        <v>7.318248968211521</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>36.6818130844141</v>
+        <v>36.99919760106646</v>
       </c>
       <c r="B23" t="n">
-        <v>26.32204390871995</v>
+        <v>26.07221890718393</v>
       </c>
       <c r="C23" t="n">
-        <v>47.39861405916248</v>
+        <v>46.90225311422616</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>29.03606301569479</v>
+        <v>29.016646087778</v>
       </c>
       <c r="B24" t="n">
-        <v>25.78950359108732</v>
+        <v>25.70322242687318</v>
       </c>
       <c r="C24" t="n">
-        <v>32.66648826006904</v>
+        <v>32.54009159701216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24.58304657156612</v>
+        <v>24.60923423145547</v>
       </c>
       <c r="B25" t="n">
-        <v>21.86533643964085</v>
+        <v>22.02487064188486</v>
       </c>
       <c r="C25" t="n">
-        <v>27.89940756070927</v>
+        <v>27.91356365845965</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>33.30693559798538</v>
+        <v>32.94949922453805</v>
       </c>
       <c r="B26" t="n">
-        <v>28.00050081266408</v>
+        <v>28.65498831389147</v>
       </c>
       <c r="C26" t="n">
-        <v>37.87379951713565</v>
+        <v>37.72416267399473</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.342567487067901</v>
+        <v>7.325916997610744</v>
       </c>
       <c r="B27" t="n">
-        <v>5.491994915117586</v>
+        <v>5.495153997251776</v>
       </c>
       <c r="C27" t="n">
-        <v>9.828990963509822</v>
+        <v>9.716220683647405</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18.57399033099604</v>
+        <v>18.58424620436234</v>
       </c>
       <c r="B28" t="n">
-        <v>14.64193607783296</v>
+        <v>14.79535010551144</v>
       </c>
       <c r="C28" t="n">
-        <v>22.49142209813477</v>
+        <v>22.38552107370545</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>38.84572902646623</v>
+        <v>38.84990876224569</v>
       </c>
       <c r="B29" t="n">
-        <v>28.02392345339365</v>
+        <v>27.73870665922277</v>
       </c>
       <c r="C29" t="n">
-        <v>48.7952694389179</v>
+        <v>48.6304151911552</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25.61345078980504</v>
+        <v>25.59880620310578</v>
       </c>
       <c r="B30" t="n">
-        <v>21.4661811526806</v>
+        <v>21.42629082091741</v>
       </c>
       <c r="C30" t="n">
-        <v>30.19702338152779</v>
+        <v>30.42463341817272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.922302138648909</v>
+        <v>9.850402445793954</v>
       </c>
       <c r="B31" t="n">
-        <v>7.211274714333966</v>
+        <v>7.164645217925788</v>
       </c>
       <c r="C31" t="n">
-        <v>12.75994223055361</v>
+        <v>12.7908940947955</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7.267614919967402</v>
+        <v>7.294181404841294</v>
       </c>
       <c r="B32" t="n">
-        <v>5.625011669003426</v>
+        <v>5.632348202250451</v>
       </c>
       <c r="C32" t="n">
-        <v>9.48962658517106</v>
+        <v>9.404015400548429</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.960551257560692</v>
+        <v>9.980260739491495</v>
       </c>
       <c r="B33" t="n">
-        <v>7.383337732037148</v>
+        <v>7.433048372908535</v>
       </c>
       <c r="C33" t="n">
-        <v>13.29894738372044</v>
+        <v>13.2862691285902</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20.20371587201708</v>
+        <v>20.15665814967981</v>
       </c>
       <c r="B34" t="n">
-        <v>15.22297052943793</v>
+        <v>15.21095907256237</v>
       </c>
       <c r="C34" t="n">
-        <v>25.67279304972186</v>
+        <v>25.66260584574433</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>30.56361446118942</v>
+        <v>30.53963244171263</v>
       </c>
       <c r="B35" t="n">
-        <v>26.87924249411285</v>
+        <v>26.79128099575513</v>
       </c>
       <c r="C35" t="n">
-        <v>34.63817540174055</v>
+        <v>34.42056449657188</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17.56616246668147</v>
+        <v>17.5159596234457</v>
       </c>
       <c r="B36" t="n">
-        <v>14.10070822452992</v>
+        <v>14.02468033547414</v>
       </c>
       <c r="C36" t="n">
-        <v>21.43941997394046</v>
+        <v>21.26269045951177</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35.97869182965804</v>
+        <v>35.2387365620642</v>
       </c>
       <c r="B37" t="n">
-        <v>30.11359293271821</v>
+        <v>30.39178991367649</v>
       </c>
       <c r="C37" t="n">
-        <v>40.68936295182985</v>
+        <v>40.46562691966284</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9.92718003814762</v>
+        <v>9.932704125578306</v>
       </c>
       <c r="B38" t="n">
-        <v>7.312806334852482</v>
+        <v>7.389125480664432</v>
       </c>
       <c r="C38" t="n">
-        <v>13.45870828470724</v>
+        <v>13.48260049194242</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27.28961665839557</v>
+        <v>27.34339676536694</v>
       </c>
       <c r="B39" t="n">
-        <v>22.59422931466144</v>
+        <v>22.37472426846752</v>
       </c>
       <c r="C39" t="n">
-        <v>33.0023885655412</v>
+        <v>33.03423358086433</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>28.74613425970271</v>
+        <v>28.34186644565036</v>
       </c>
       <c r="B40" t="n">
-        <v>24.07388382177527</v>
+        <v>24.02237942792653</v>
       </c>
       <c r="C40" t="n">
-        <v>32.67179008924934</v>
+        <v>32.63086630277689</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>16.64671631157174</v>
+        <v>16.63493009862139</v>
       </c>
       <c r="B41" t="n">
-        <v>13.12475928951602</v>
+        <v>13.1253911725614</v>
       </c>
       <c r="C41" t="n">
-        <v>20.04481391997733</v>
+        <v>20.04702908458824</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14.01175167426917</v>
+        <v>14.04562228639018</v>
       </c>
       <c r="B42" t="n">
-        <v>10.48714546055504</v>
+        <v>10.49992634829437</v>
       </c>
       <c r="C42" t="n">
-        <v>18.18563122174215</v>
+        <v>18.25342717700766</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>25.60764657831057</v>
+        <v>25.59588048909535</v>
       </c>
       <c r="B43" t="n">
-        <v>21.4661811526806</v>
+        <v>21.41470070141937</v>
       </c>
       <c r="C43" t="n">
-        <v>30.20018233759513</v>
+        <v>30.41058268503878</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>12.81660467305169</v>
+        <v>12.80781167259965</v>
       </c>
       <c r="B44" t="n">
-        <v>9.687265637299916</v>
+        <v>9.629953048598122</v>
       </c>
       <c r="C44" t="n">
-        <v>16.3244610686705</v>
+        <v>16.28562918272094</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>13.98382667929586</v>
+        <v>14.10647202881113</v>
       </c>
       <c r="B45" t="n">
-        <v>10.33347123721559</v>
+        <v>10.45176376322086</v>
       </c>
       <c r="C45" t="n">
-        <v>19.24827327537241</v>
+        <v>19.31737129590746</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.625316909767792</v>
+        <v>9.591780362636088</v>
       </c>
       <c r="B46" t="n">
-        <v>7.17791986424393</v>
+        <v>7.107565871085508</v>
       </c>
       <c r="C46" t="n">
-        <v>12.47851304086435</v>
+        <v>12.48195241889388</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.620077542622337</v>
+        <v>5.623224210877397</v>
       </c>
       <c r="B47" t="n">
-        <v>4.23500574579852</v>
+        <v>4.222332441390872</v>
       </c>
       <c r="C47" t="n">
-        <v>7.543911400952197</v>
+        <v>7.504735185271901</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>26.87974314149957</v>
+        <v>26.99852048884541</v>
       </c>
       <c r="B48" t="n">
-        <v>21.72658930551149</v>
+        <v>21.91032248142294</v>
       </c>
       <c r="C48" t="n">
-        <v>31.95198912361044</v>
+        <v>32.27854485325339</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>26.24038190283168</v>
+        <v>26.06190488235943</v>
       </c>
       <c r="B49" t="n">
-        <v>22.08072769279836</v>
+        <v>22.24453825749503</v>
       </c>
       <c r="C49" t="n">
-        <v>30.4831579564335</v>
+        <v>30.05347133971882</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>35.85569995234732</v>
+        <v>35.26322568617744</v>
       </c>
       <c r="B50" t="n">
-        <v>30.02158561148262</v>
+        <v>30.35525712372663</v>
       </c>
       <c r="C50" t="n">
-        <v>40.6698916259216</v>
+        <v>40.5252350821463</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>23.82887739104562</v>
+        <v>24.00431122144721</v>
       </c>
       <c r="B51" t="n">
-        <v>15.28846979838262</v>
+        <v>15.19903618107514</v>
       </c>
       <c r="C51" t="n">
-        <v>33.02765795254604</v>
+        <v>32.92252109589037</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9.556270245297856</v>
+        <v>9.605612682251341</v>
       </c>
       <c r="B52" t="n">
-        <v>7.087134562429478</v>
+        <v>7.167633154054244</v>
       </c>
       <c r="C52" t="n">
-        <v>12.4519589114476</v>
+        <v>12.46478982939704</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27.19940975733675</v>
+        <v>27.44492359098563</v>
       </c>
       <c r="B53" t="n">
-        <v>22.61061352287519</v>
+        <v>22.34333084900578</v>
       </c>
       <c r="C53" t="n">
-        <v>33.111420270548</v>
+        <v>33.38529316510497</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>34.19668230320892</v>
+        <v>34.35848693821551</v>
       </c>
       <c r="B54" t="n">
-        <v>24.30260124972897</v>
+        <v>24.09308451921043</v>
       </c>
       <c r="C54" t="n">
-        <v>44.44845147205083</v>
+        <v>44.5549987645003</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>33.35013889893976</v>
+        <v>33.05184500308701</v>
       </c>
       <c r="B55" t="n">
-        <v>27.85750863427619</v>
+        <v>28.13005749887061</v>
       </c>
       <c r="C55" t="n">
-        <v>38.03988543458263</v>
+        <v>37.97572465534491</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9.94859548128707</v>
+        <v>9.910116111418729</v>
       </c>
       <c r="B56" t="n">
-        <v>7.378215113428928</v>
+        <v>7.405741756598503</v>
       </c>
       <c r="C56" t="n">
-        <v>12.66389841293514</v>
+        <v>12.679689085024</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7.281006862028809</v>
+        <v>7.291213763337649</v>
       </c>
       <c r="B57" t="n">
-        <v>5.626143834451793</v>
+        <v>5.578914139592301</v>
       </c>
       <c r="C57" t="n">
-        <v>9.605675650277611</v>
+        <v>9.478278011861203</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>36.1497501999538</v>
+        <v>35.42784347285679</v>
       </c>
       <c r="B58" t="n">
-        <v>30.16025585513941</v>
+        <v>30.46860549941984</v>
       </c>
       <c r="C58" t="n">
-        <v>40.70451266619582</v>
+        <v>40.63241468443937</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>13.66777335279469</v>
+        <v>13.66743520524593</v>
       </c>
       <c r="B59" t="n">
-        <v>10.31207750185989</v>
+        <v>10.27327891860019</v>
       </c>
       <c r="C59" t="n">
-        <v>16.9654230306314</v>
+        <v>17.07454446492616</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>36.54855562370874</v>
+        <v>37.40383679609374</v>
       </c>
       <c r="B60" t="n">
-        <v>26.43409942132154</v>
+        <v>26.53758588438364</v>
       </c>
       <c r="C60" t="n">
-        <v>47.40356862330012</v>
+        <v>47.27882000785757</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9.994471821076306</v>
+        <v>9.993775162492902</v>
       </c>
       <c r="B61" t="n">
-        <v>7.421321559567216</v>
+        <v>7.484358607127126</v>
       </c>
       <c r="C61" t="n">
-        <v>13.27164872590202</v>
+        <v>13.18798833164569</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>13.60639540544072</v>
+        <v>13.81230336371747</v>
       </c>
       <c r="B62" t="n">
-        <v>10.42847824758425</v>
+        <v>10.25052019671252</v>
       </c>
       <c r="C62" t="n">
-        <v>17.65951564823248</v>
+        <v>17.73091068039987</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.963089140779394</v>
+        <v>9.945914846611837</v>
       </c>
       <c r="B63" t="n">
-        <v>7.386425623925558</v>
+        <v>7.390744243320341</v>
       </c>
       <c r="C63" t="n">
-        <v>13.55765295803688</v>
+        <v>13.4862561826822</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>36.51244953127829</v>
+        <v>37.40982056694485</v>
       </c>
       <c r="B64" t="n">
-        <v>26.36437524418875</v>
+        <v>26.4157506418373</v>
       </c>
       <c r="C64" t="n">
-        <v>47.11009828448763</v>
+        <v>47.09086408450853</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7.13806001286838</v>
+        <v>7.138592359475341</v>
       </c>
       <c r="B65" t="n">
-        <v>5.377768901274127</v>
+        <v>5.374712361678262</v>
       </c>
       <c r="C65" t="n">
-        <v>9.362859790872795</v>
+        <v>9.339119789812427</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>19.97551196328929</v>
+        <v>20.04264981842391</v>
       </c>
       <c r="B66" t="n">
-        <v>15.23622053330631</v>
+        <v>15.22501579357021</v>
       </c>
       <c r="C66" t="n">
-        <v>25.35165914064203</v>
+        <v>25.28509606084798</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>19.49009570337315</v>
+        <v>19.48240768588446</v>
       </c>
       <c r="B67" t="n">
-        <v>14.76246556475921</v>
+        <v>14.71293002663407</v>
       </c>
       <c r="C67" t="n">
-        <v>24.90190239041199</v>
+        <v>25.05429680521529</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>30.97016347158158</v>
+        <v>30.99199890778382</v>
       </c>
       <c r="B68" t="n">
-        <v>26.25194755119592</v>
+        <v>26.32671197989405</v>
       </c>
       <c r="C68" t="n">
-        <v>35.8695628375273</v>
+        <v>35.85106936582758</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.595057473856905</v>
+        <v>5.577850634113587</v>
       </c>
       <c r="B69" t="n">
-        <v>4.227607363472128</v>
+        <v>4.245934687038762</v>
       </c>
       <c r="C69" t="n">
-        <v>7.521343008274894</v>
+        <v>7.487482489665235</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>28.79100050584888</v>
+        <v>28.27455178492974</v>
       </c>
       <c r="B70" t="n">
-        <v>24.0402326572082</v>
+        <v>23.77853751483467</v>
       </c>
       <c r="C70" t="n">
-        <v>32.38555254624358</v>
+        <v>32.13642582526467</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20.06929598981148</v>
+        <v>20.06167327462988</v>
       </c>
       <c r="B71" t="n">
-        <v>17.37176911828849</v>
+        <v>17.32462388217813</v>
       </c>
       <c r="C71" t="n">
-        <v>22.90936039087807</v>
+        <v>22.892205612472</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>23.20498100489026</v>
+        <v>23.15122731679353</v>
       </c>
       <c r="B72" t="n">
-        <v>20.09401349605763</v>
+        <v>20.06378625055872</v>
       </c>
       <c r="C72" t="n">
-        <v>26.87541175269952</v>
+        <v>26.85076694407353</v>
       </c>
     </row>
   </sheetData>
